--- a/SwagLabsDocumentation/SwagLabs_TestScenarios.xlsx
+++ b/SwagLabsDocumentation/SwagLabs_TestScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Documents\GitHub\RoxoftTask\RoxoftTask\SwagLabsDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6203CC-5CAD-486B-8E8A-891024D14D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC5BEE-C5FC-4F0D-A762-1CBCCDBFA4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePage" sheetId="3" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>TEST SCENARIO</t>
   </si>
@@ -49,15 +49,9 @@
     <t>SetUp</t>
   </si>
   <si>
-    <t>While technically not a test, it's being called up before each of the tests, and it has to verify that the website is able to be accessed using the url.</t>
-  </si>
-  <si>
     <t>LoginForm - Enabled Elements</t>
   </si>
   <si>
-    <t xml:space="preserve">All the web elements on the login page are iterated through and are asserted as Enabled, and Displayed. </t>
-  </si>
-  <si>
     <t>1.1, 1.1.1, 1.1.2, 1.1.3</t>
   </si>
   <si>
@@ -67,25 +61,298 @@
     <t>1.1.1., 1.1.2</t>
   </si>
   <si>
-    <t>The test is ran in order to supplement the LoginForm - Enabled Elements test. The two textbox elements should have visible placeholder texts.</t>
-  </si>
-  <si>
     <t>Login - Test Valid Credentials</t>
   </si>
   <si>
-    <t>A collection of users is iterated through the login form. There are two different expected behaviors. The users with valid credentials should be able to log in, whereas users that have valid credentials, but are locked out, should not be able to log in. In addition, there is a small check in the test in order to determine whether there might be potential performance issues during the login process.</t>
-  </si>
-  <si>
     <t>Login - Test Invalid Credentials</t>
   </si>
   <si>
     <t>2.1, 2.2, 2.3, 2.4</t>
   </si>
   <si>
-    <t>A collection of users with deliberately invalid credentials is iterated through the login form. The error container element should alert the user why they're not able to log in with an appropriate error message. An empty username or a password textbox should alert the user that these elements have not received an input, whereas an invalid input of either element should alert the user that there is a mismatch in terms of the credentials.</t>
-  </si>
-  <si>
-    <t>Test the functionality of the home page of the website to make sure that the user is able to use different elements of the CMS without an issue. They should be able to add inventory items to their carts, open the cart, logout, and reset the app state to the default conditions.</t>
+    <t>TEST NAME</t>
+  </si>
+  <si>
+    <t>LoginForm_Element_IsDisplayed</t>
+  </si>
+  <si>
+    <t>LoginForm_PlaceholderText_IsCorrect</t>
+  </si>
+  <si>
+    <t>Login_WhenCredentials_Valid</t>
+  </si>
+  <si>
+    <t>Login_WhenCredentials_Invalid</t>
+  </si>
+  <si>
+    <t>PHASES</t>
+  </si>
+  <si>
+    <t>Arrange</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>Preparing the test environment: 
+1. Instantiate the ChromeDriver
+2. Navigate to the Url of the website
+3. Maximize the Browser window
+4. Instantiate an object of the LoginPage POM</t>
+  </si>
+  <si>
+    <t>While technically not a test, the setup is being called up before each of the tests, and it has to verify that the website is able to be accessed using the url.</t>
+  </si>
+  <si>
+    <t>1. Iterate through the collection of web elements retrieved from the login page
+2. Assert class methods are called in order to ensure that the elements are enabled and isplayed, indicating that they are both visible and interactable on the page</t>
+  </si>
+  <si>
+    <t>1.  Call the ElementsCollector method which grabs all of the web elements of the login form</t>
+  </si>
+  <si>
+    <t>1. Obtain the _loginPage instance from the SetUp method</t>
+  </si>
+  <si>
+    <t>1. Test method is parameterized using [TestCase] attribute
+2. For each of the test cases, the expected placeholder text and the name of the element are provided
+3. The _driver instance of the Selenium Web driver is initialized from the SetUp</t>
+  </si>
+  <si>
+    <t>1. The Selenium Web driver is used to find the web element corresponding to the provided element name
+2. The placeholder attribute of the element is retrieved using GetAttribute</t>
+  </si>
+  <si>
+    <t>1. The placeholder text is compared with the expected placeholder test using Assertion class methods</t>
+  </si>
+  <si>
+    <t>1. The WebDriver navigates to the login page URL
+2. The AttemptLogin method of the _loginPage object is called with the provided username and password from the test data, with the command to submit the form</t>
+  </si>
+  <si>
+    <t>1. The test checks if the user is successfully logged in by verifying if the current URL contains the expected login endpoint
+2. If the user is locked, it asserts that the user is not logged in; otherwise, it asserts that the user is logged in successfully
+3. The test also checks the duration of the login process and writes a console log if it exceeds the acceptable limit</t>
+  </si>
+  <si>
+    <t>1. The test method is parameterized with [TestCaseSource] attribute, sourcing test data from the GetInvalidUsers method of the LoginPage class
+2. Each test case provides a LoginModel object representing invalid user credentials
+3. The _driver instance of Selenium Web Driver is initialized in the SetUp</t>
+  </si>
+  <si>
+    <t>1. The test method is parameterized with [TestCaseSource] attribute, sourcing test dana from the GetUsers method, of the LoginPage class
+2. Each of the test cases provides a LoginModel object representing valid user credentials
+3. The _driver instance of Selenium WebDriver is initialized in the SetUp</t>
+  </si>
+  <si>
+    <t>1. The WebDriver navigates to the login page URL
+2. The AttemptLogin method of the _loginPage object is called with the provided invalid username and password from the test data, with the command to submit the form
+3. The test locates the error message element on the page to retrieve the actual error message displayed to the user</t>
+  </si>
+  <si>
+    <t>1. The test uses Assert class methods to confirm that the error message container element is displayed on the page
+2. The test then asserts that the actual error message displayed matches the expected error message defined in the test dana</t>
+  </si>
+  <si>
+    <t>1. The Selenium WebDriver instance) is initialized as a ChromeDriver.
+2. Instances of the HomePage and LoginPage classes are created, passing the WebDriver instance to them.
+3. An instance of WebDriverWait is created
+4. The WebDriver navigates to the login page URL (LoginHelper.loginUrl).
+5. A login attempt is made using confirmed user credentials</t>
+  </si>
+  <si>
+    <t>While technically not a test, the setup is being called up before each of the tests.</t>
+  </si>
+  <si>
+    <t>All_Inventory_Items_Visible_And_Enabled</t>
+  </si>
+  <si>
+    <t>1. The GetInventoryItems method of the _homePage object is called to retrieve a list of inventory items.
+2. The expected number of items is compared with the actual number of items in the inventoryItems list using an assertion</t>
+  </si>
+  <si>
+    <t>There is no specific action being performed in the act phase itself. However, the arrangement phase includes an action of retrieving inventory items, which sets up the initial state for the assertions.</t>
+  </si>
+  <si>
+    <t>1. The test iterates through each inventory item in the inventoryItems list.
+2. For each item, assertions are made to ensure that its description, image, title, and price are not null, displayed, and enabled. These assertions verify the visibility and usability of each item on the page.</t>
+  </si>
+  <si>
+    <t>AllItems_AddAndRemove_FromCart</t>
+  </si>
+  <si>
+    <t>1. The initial count of items in the cart is obtained using _homePage.GetCartItemCount() to establish a baseline.
+2. The "Add to Cart" buttons are retrieved from the home page.
+3. The expectedItemCount variable is initialized to track the expected number of items in the cart.
+4. The item names currently in the cart are obtained.</t>
+  </si>
+  <si>
+    <t>1. The action of adding items to the cart is performed by iterating through the "Add to Cart" buttons, clicking each one, and incrementing the expectedItemCount.
+2. After adding items, the action of removing items from the cart is performed by iterating through the item names in the cart, clicking the "Remove" button for each item, and decrementing the expectedItemCount.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made immediately after each action to ensure that the number of items in the cart increments as expected after adding an item and decrements as expected after removing an item.
+2. The Cart icon badge reflecting the number of items currently in the cart is also checked within the loops</t>
+  </si>
+  <si>
+    <t>3.2, 3.2.1, 3.2.2, 3.4.1</t>
+  </si>
+  <si>
+    <t>CartIcon_IsClickable</t>
+  </si>
+  <si>
+    <t>Cart Icon Basic Functionality</t>
+  </si>
+  <si>
+    <t>Inventory Items - Adding and Removing from the Cart</t>
+  </si>
+  <si>
+    <t>Inventory Items - Visible and Enabled</t>
+  </si>
+  <si>
+    <t>1. The Cart link is clicked</t>
+  </si>
+  <si>
+    <t>1. After the click, the current URL is obtained, and then it's asserted that the current URL matches the expected URL. If the URLs don't match, the test fails, and the expected and actual URLs are displayed in the failure message</t>
+  </si>
+  <si>
+    <t>1. The cart link element is obtained and checked for not being null, being displayed, and being enabled</t>
+  </si>
+  <si>
+    <t>Footer Social Links Enabled and Clickable</t>
+  </si>
+  <si>
+    <t>Footer_SocialLinks_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The GetElements method is called on the _homePage object to retrieve the social links within the social container.
+2. Each social link element is obtained and stored in the socials collection.</t>
+  </si>
+  <si>
+    <t>1. The test iterates through each social link element in the socials collection.
+2. For each social link element, assertions are made to ensure it is not null, displayed, and enabled.
+3. The Click method is called on each social link element to simulate clicking on it.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made before clicking to ensure that each social link element is clickable (i.e., not null, displayed, and enabled).</t>
+  </si>
+  <si>
+    <t>1. The dropdown options elements are retrieved from the webpage using the GetDropdownOption  method on the _homePage object
+2. The test selects a specific sorting option value from the dropdown options using the SelectByValue method</t>
+  </si>
+  <si>
+    <t>1. The test waits until the selected option is reflected in the dropdown by using the WebDriverWait object.
+2. After the selection is made, it retrieves the currently selected value from the dropdown options and verifies it against the expected value.
+3. Depending on the selected sorting option, the test retrieves the inventory item names or prices from the webpage and sorts them accordingly.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made if the selected option in the dropdown is not null and matches the expected value.
+2. The test asserts that the inventory items are sorted correctly based on the selected sorting option. For "NameAscending" and "NameDescending", it checks if the item names are sorted alphabetically. For "PriceLowToHigh" and "PriceHighToLow", it verifies if the item prices are sorted accordingly.</t>
+  </si>
+  <si>
+    <t>Dropdown Sorting</t>
+  </si>
+  <si>
+    <t>SortingDropdownMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>All_Items Main Menu Option</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.1</t>
+  </si>
+  <si>
+    <t>About Main Menu Option</t>
+  </si>
+  <si>
+    <t>Logout Main Menu Option</t>
+  </si>
+  <si>
+    <t>ResetAppState Main Menu Option</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.2</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.3</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.4</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (AllItemsMainMenu) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (AllItemsMainMenu) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>AllItems_MainMenu_IsClickable()</t>
+  </si>
+  <si>
+    <t>About_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (About) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (About) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (AllItemsMainMenu) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and that the driver navigated to the home page again</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (About) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and the driver navigated to https://saucelabs.com</t>
+  </si>
+  <si>
+    <t>Logout_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (Logout) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (Logout) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and the driver navigated to the login page</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (Logout) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>ResetAppState_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (ResetAppState) which is a sub-element of the main dropdown menu.
+3. Items are added to the cart using the AddItemsToCart method to simulate a non-empty cart state</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (ResetAppState) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (ResetAppState) is not null, displayed, and enabled before clicking on it.
+3. Assertions are made to verify that the URL after clicking matches the expected inventory URL, indicating that the app state was reset.
+4. Assertions are made to verify that the cart item count after resetting the app state is 0, indicating that the cart was cleared.</t>
+  </si>
+  <si>
+    <t>3.3, 3.3.1, 3.3.2, 3.3.3, 3.3.4</t>
+  </si>
+  <si>
+    <t>This test scenario aims to verify the functionality and behavior of the Home Page of the web application. It covers various features and interactions available on the Home Page, ensuring that they work as expected and provide a seamless user experience.</t>
   </si>
 </sst>
 </file>
@@ -168,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -178,7 +445,7 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFFE79B"/>
       </left>
       <right/>
       <top/>
@@ -187,57 +454,192 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFFE79B"/>
       </left>
       <right style="thick">
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
       </right>
       <top style="thick">
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFFE79B"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFFC000"/>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
+      <top style="medium">
+        <color theme="7"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
+      <bottom style="medium">
+        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
+      <top style="medium">
+        <color theme="7"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color theme="7" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFE79B"/>
       </left>
       <right/>
       <top/>
@@ -245,52 +647,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFFE79B"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFE79B"/>
-      </right>
-      <top style="thick">
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color rgb="FFFFE79B"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FFFFE79B"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFFE79B"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFFE79B"/>
       </left>
       <right style="thick">
         <color rgb="FFFFE79B"/>
       </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFFFE79B"/>
       </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFE79B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFFE79B"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFE79B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFE79B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFE79B"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FFFFE79B"/>
       </bottom>
@@ -300,39 +811,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,192 +1214,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="84" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="22">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C8748B-6970-4C28-BE74-36AAD2D349EC}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525BC3BD-7C77-4CE4-B392-06D397024C6C}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="109.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="42">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SwagLabsDocumentation/SwagLabs_TestScenarios.xlsx
+++ b/SwagLabsDocumentation/SwagLabs_TestScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Documents\GitHub\RoxoftTask\RoxoftTask\SwagLabsDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC5BEE-C5FC-4F0D-A762-1CBCCDBFA4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C991CC-E8C1-4CB1-9455-D7B58888414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -153,206 +153,206 @@
 3. The test locates the error message element on the page to retrieve the actual error message displayed to the user</t>
   </si>
   <si>
+    <t>While technically not a test, the setup is being called up before each of the tests.</t>
+  </si>
+  <si>
+    <t>All_Inventory_Items_Visible_And_Enabled</t>
+  </si>
+  <si>
+    <t>1. The GetInventoryItems method of the _homePage object is called to retrieve a list of inventory items.
+2. The expected number of items is compared with the actual number of items in the inventoryItems list using an assertion</t>
+  </si>
+  <si>
+    <t>There is no specific action being performed in the act phase itself. However, the arrangement phase includes an action of retrieving inventory items, which sets up the initial state for the assertions.</t>
+  </si>
+  <si>
+    <t>1. The test iterates through each inventory item in the inventoryItems list.
+2. For each item, assertions are made to ensure that its description, image, title, and price are not null, displayed, and enabled. These assertions verify the visibility and usability of each item on the page.</t>
+  </si>
+  <si>
+    <t>AllItems_AddAndRemove_FromCart</t>
+  </si>
+  <si>
+    <t>1. The initial count of items in the cart is obtained using _homePage.GetCartItemCount() to establish a baseline.
+2. The "Add to Cart" buttons are retrieved from the home page.
+3. The expectedItemCount variable is initialized to track the expected number of items in the cart.
+4. The item names currently in the cart are obtained.</t>
+  </si>
+  <si>
+    <t>1. The action of adding items to the cart is performed by iterating through the "Add to Cart" buttons, clicking each one, and incrementing the expectedItemCount.
+2. After adding items, the action of removing items from the cart is performed by iterating through the item names in the cart, clicking the "Remove" button for each item, and decrementing the expectedItemCount.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made immediately after each action to ensure that the number of items in the cart increments as expected after adding an item and decrements as expected after removing an item.
+2. The Cart icon badge reflecting the number of items currently in the cart is also checked within the loops</t>
+  </si>
+  <si>
+    <t>3.2, 3.2.1, 3.2.2, 3.4.1</t>
+  </si>
+  <si>
+    <t>CartIcon_IsClickable</t>
+  </si>
+  <si>
+    <t>Cart Icon Basic Functionality</t>
+  </si>
+  <si>
+    <t>Inventory Items - Adding and Removing from the Cart</t>
+  </si>
+  <si>
+    <t>Inventory Items - Visible and Enabled</t>
+  </si>
+  <si>
+    <t>1. The Cart link is clicked</t>
+  </si>
+  <si>
+    <t>1. After the click, the current URL is obtained, and then it's asserted that the current URL matches the expected URL. If the URLs don't match, the test fails, and the expected and actual URLs are displayed in the failure message</t>
+  </si>
+  <si>
+    <t>1. The cart link element is obtained and checked for not being null, being displayed, and being enabled</t>
+  </si>
+  <si>
+    <t>Footer Social Links Enabled and Clickable</t>
+  </si>
+  <si>
+    <t>Footer_SocialLinks_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The GetElements method is called on the _homePage object to retrieve the social links within the social container.
+2. Each social link element is obtained and stored in the socials collection.</t>
+  </si>
+  <si>
+    <t>1. The test iterates through each social link element in the socials collection.
+2. For each social link element, assertions are made to ensure it is not null, displayed, and enabled.
+3. The Click method is called on each social link element to simulate clicking on it.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made before clicking to ensure that each social link element is clickable (i.e., not null, displayed, and enabled).</t>
+  </si>
+  <si>
+    <t>1. The dropdown options elements are retrieved from the webpage using the GetDropdownOption  method on the _homePage object
+2. The test selects a specific sorting option value from the dropdown options using the SelectByValue method</t>
+  </si>
+  <si>
+    <t>1. The test waits until the selected option is reflected in the dropdown by using the WebDriverWait object.
+2. After the selection is made, it retrieves the currently selected value from the dropdown options and verifies it against the expected value.
+3. Depending on the selected sorting option, the test retrieves the inventory item names or prices from the webpage and sorts them accordingly.</t>
+  </si>
+  <si>
+    <t>1. Assertions are made if the selected option in the dropdown is not null and matches the expected value.
+2. The test asserts that the inventory items are sorted correctly based on the selected sorting option. For "NameAscending" and "NameDescending", it checks if the item names are sorted alphabetically. For "PriceLowToHigh" and "PriceHighToLow", it verifies if the item prices are sorted accordingly.</t>
+  </si>
+  <si>
+    <t>Dropdown Sorting</t>
+  </si>
+  <si>
+    <t>SortingDropdownMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>All_Items Main Menu Option</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.1</t>
+  </si>
+  <si>
+    <t>About Main Menu Option</t>
+  </si>
+  <si>
+    <t>Logout Main Menu Option</t>
+  </si>
+  <si>
+    <t>ResetAppState Main Menu Option</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.2</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.3</t>
+  </si>
+  <si>
+    <t>3.1, 3.1.4</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (AllItemsMainMenu) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (AllItemsMainMenu) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>AllItems_MainMenu_IsClickable()</t>
+  </si>
+  <si>
+    <t>About_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (About) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (About) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (AllItemsMainMenu) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and that the driver navigated to the home page again</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (About) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and the driver navigated to https://saucelabs.com</t>
+  </si>
+  <si>
+    <t>Logout_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (Logout) which is a sub-element of the main dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (Logout) is not null, displayed, and enabled before clicking on it.
+3. After clicking, the test asserts that the click action was successful and the driver navigated to the login page</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (Logout) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>ResetAppState_MainMenu_IsClickable</t>
+  </si>
+  <si>
+    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
+2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (ResetAppState) which is a sub-element of the main dropdown menu.
+3. Items are added to the cart using the AddItemsToCart method to simulate a non-empty cart state</t>
+  </si>
+  <si>
+    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
+2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (ResetAppState) within the dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
+2. It also asserts that the specific menu item (ResetAppState) is not null, displayed, and enabled before clicking on it.
+3. Assertions are made to verify that the URL after clicking matches the expected inventory URL, indicating that the app state was reset.
+4. Assertions are made to verify that the cart item count after resetting the app state is 0, indicating that the cart was cleared.</t>
+  </si>
+  <si>
+    <t>3.3, 3.3.1, 3.3.2, 3.3.3, 3.3.4</t>
+  </si>
+  <si>
+    <t>This test scenario aims to verify the functionality and behavior of the Home Page of the web application. It covers various features and interactions available on the Home Page, ensuring that they work as expected and provide a seamless user experience.</t>
+  </si>
+  <si>
     <t>1. The test uses Assert class methods to confirm that the error message container element is displayed on the page
-2. The test then asserts that the actual error message displayed matches the expected error message defined in the test dana</t>
-  </si>
-  <si>
-    <t>1. The Selenium WebDriver instance) is initialized as a ChromeDriver.
+2. The test then asserts that the actual error message displayed matches the expected error message defined in the test data</t>
+  </si>
+  <si>
+    <t>1. The Selenium WebDriver instance is initialized as a ChromeDriver.
 2. Instances of the HomePage and LoginPage classes are created, passing the WebDriver instance to them.
 3. An instance of WebDriverWait is created
 4. The WebDriver navigates to the login page URL (LoginHelper.loginUrl).
 5. A login attempt is made using confirmed user credentials</t>
-  </si>
-  <si>
-    <t>While technically not a test, the setup is being called up before each of the tests.</t>
-  </si>
-  <si>
-    <t>All_Inventory_Items_Visible_And_Enabled</t>
-  </si>
-  <si>
-    <t>1. The GetInventoryItems method of the _homePage object is called to retrieve a list of inventory items.
-2. The expected number of items is compared with the actual number of items in the inventoryItems list using an assertion</t>
-  </si>
-  <si>
-    <t>There is no specific action being performed in the act phase itself. However, the arrangement phase includes an action of retrieving inventory items, which sets up the initial state for the assertions.</t>
-  </si>
-  <si>
-    <t>1. The test iterates through each inventory item in the inventoryItems list.
-2. For each item, assertions are made to ensure that its description, image, title, and price are not null, displayed, and enabled. These assertions verify the visibility and usability of each item on the page.</t>
-  </si>
-  <si>
-    <t>AllItems_AddAndRemove_FromCart</t>
-  </si>
-  <si>
-    <t>1. The initial count of items in the cart is obtained using _homePage.GetCartItemCount() to establish a baseline.
-2. The "Add to Cart" buttons are retrieved from the home page.
-3. The expectedItemCount variable is initialized to track the expected number of items in the cart.
-4. The item names currently in the cart are obtained.</t>
-  </si>
-  <si>
-    <t>1. The action of adding items to the cart is performed by iterating through the "Add to Cart" buttons, clicking each one, and incrementing the expectedItemCount.
-2. After adding items, the action of removing items from the cart is performed by iterating through the item names in the cart, clicking the "Remove" button for each item, and decrementing the expectedItemCount.</t>
-  </si>
-  <si>
-    <t>1. Assertions are made immediately after each action to ensure that the number of items in the cart increments as expected after adding an item and decrements as expected after removing an item.
-2. The Cart icon badge reflecting the number of items currently in the cart is also checked within the loops</t>
-  </si>
-  <si>
-    <t>3.2, 3.2.1, 3.2.2, 3.4.1</t>
-  </si>
-  <si>
-    <t>CartIcon_IsClickable</t>
-  </si>
-  <si>
-    <t>Cart Icon Basic Functionality</t>
-  </si>
-  <si>
-    <t>Inventory Items - Adding and Removing from the Cart</t>
-  </si>
-  <si>
-    <t>Inventory Items - Visible and Enabled</t>
-  </si>
-  <si>
-    <t>1. The Cart link is clicked</t>
-  </si>
-  <si>
-    <t>1. After the click, the current URL is obtained, and then it's asserted that the current URL matches the expected URL. If the URLs don't match, the test fails, and the expected and actual URLs are displayed in the failure message</t>
-  </si>
-  <si>
-    <t>1. The cart link element is obtained and checked for not being null, being displayed, and being enabled</t>
-  </si>
-  <si>
-    <t>Footer Social Links Enabled and Clickable</t>
-  </si>
-  <si>
-    <t>Footer_SocialLinks_IsClickable</t>
-  </si>
-  <si>
-    <t>1. The GetElements method is called on the _homePage object to retrieve the social links within the social container.
-2. Each social link element is obtained and stored in the socials collection.</t>
-  </si>
-  <si>
-    <t>1. The test iterates through each social link element in the socials collection.
-2. For each social link element, assertions are made to ensure it is not null, displayed, and enabled.
-3. The Click method is called on each social link element to simulate clicking on it.</t>
-  </si>
-  <si>
-    <t>1. Assertions are made before clicking to ensure that each social link element is clickable (i.e., not null, displayed, and enabled).</t>
-  </si>
-  <si>
-    <t>1. The dropdown options elements are retrieved from the webpage using the GetDropdownOption  method on the _homePage object
-2. The test selects a specific sorting option value from the dropdown options using the SelectByValue method</t>
-  </si>
-  <si>
-    <t>1. The test waits until the selected option is reflected in the dropdown by using the WebDriverWait object.
-2. After the selection is made, it retrieves the currently selected value from the dropdown options and verifies it against the expected value.
-3. Depending on the selected sorting option, the test retrieves the inventory item names or prices from the webpage and sorts them accordingly.</t>
-  </si>
-  <si>
-    <t>1. Assertions are made if the selected option in the dropdown is not null and matches the expected value.
-2. The test asserts that the inventory items are sorted correctly based on the selected sorting option. For "NameAscending" and "NameDescending", it checks if the item names are sorted alphabetically. For "PriceLowToHigh" and "PriceHighToLow", it verifies if the item prices are sorted accordingly.</t>
-  </si>
-  <si>
-    <t>Dropdown Sorting</t>
-  </si>
-  <si>
-    <t>SortingDropdownMenu_IsClickable</t>
-  </si>
-  <si>
-    <t>All_Items Main Menu Option</t>
-  </si>
-  <si>
-    <t>3.1, 3.1.1</t>
-  </si>
-  <si>
-    <t>About Main Menu Option</t>
-  </si>
-  <si>
-    <t>Logout Main Menu Option</t>
-  </si>
-  <si>
-    <t>ResetAppState Main Menu Option</t>
-  </si>
-  <si>
-    <t>3.1, 3.1.2</t>
-  </si>
-  <si>
-    <t>3.1, 3.1.3</t>
-  </si>
-  <si>
-    <t>3.1, 3.1.4</t>
-  </si>
-  <si>
-    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
-2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (AllItemsMainMenu) which is a sub-element of the main dropdown menu.</t>
-  </si>
-  <si>
-    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
-2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (AllItemsMainMenu) within the dropdown menu.</t>
-  </si>
-  <si>
-    <t>AllItems_MainMenu_IsClickable()</t>
-  </si>
-  <si>
-    <t>About_MainMenu_IsClickable</t>
-  </si>
-  <si>
-    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
-2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (About) which is a sub-element of the main dropdown menu.</t>
-  </si>
-  <si>
-    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
-2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (About) within the dropdown menu.</t>
-  </si>
-  <si>
-    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
-2. It also asserts that the specific menu item (AllItemsMainMenu) is not null, displayed, and enabled before clicking on it.
-3. After clicking, the test asserts that the click action was successful and that the driver navigated to the home page again</t>
-  </si>
-  <si>
-    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
-2. It also asserts that the specific menu item (About) is not null, displayed, and enabled before clicking on it.
-3. After clicking, the test asserts that the click action was successful and the driver navigated to https://saucelabs.com</t>
-  </si>
-  <si>
-    <t>Logout_MainMenu_IsClickable</t>
-  </si>
-  <si>
-    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
-2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (Logout) which is a sub-element of the main dropdown menu.</t>
-  </si>
-  <si>
-    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
-2. It also asserts that the specific menu item (Logout) is not null, displayed, and enabled before clicking on it.
-3. After clicking, the test asserts that the click action was successful and the driver navigated to the login page</t>
-  </si>
-  <si>
-    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
-2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (Logout) within the dropdown menu.</t>
-  </si>
-  <si>
-    <t>ResetAppState_MainMenu_IsClickable</t>
-  </si>
-  <si>
-    <t>1. The test starts by setting up the main dropdown button element using the MainDropdownClicker method.
-2. Inside the MainMenuButtonClicker method, the test prepares the clickable element (ResetAppState) which is a sub-element of the main dropdown menu.
-3. Items are added to the cart using the AddItemsToCart method to simulate a non-empty cart state</t>
-  </si>
-  <si>
-    <t>1. MainDropdownClicker method clicks on the main dropdown button, simulating the action of expanding the dropdown menu.
-2. After the dropdown is expanded, the MainMenuButtonClicker method clicks on the specific menu item (ResetAppState) within the dropdown menu.</t>
-  </si>
-  <si>
-    <t>1. The test asserts that the main dropdown button is not null, displayed, and enabled before clicking on it.
-2. It also asserts that the specific menu item (ResetAppState) is not null, displayed, and enabled before clicking on it.
-3. Assertions are made to verify that the URL after clicking matches the expected inventory URL, indicating that the app state was reset.
-4. Assertions are made to verify that the cart item count after resetting the app state is 0, indicating that the cart was cleared.</t>
-  </si>
-  <si>
-    <t>3.3, 3.3.1, 3.3.2, 3.3.3, 3.3.4</t>
-  </si>
-  <si>
-    <t>This test scenario aims to verify the functionality and behavior of the Home Page of the web application. It covers various features and interactions available on the Home Page, ensuring that they work as expected and provide a seamless user experience.</t>
   </si>
 </sst>
 </file>
@@ -821,43 +821,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,50 +848,86 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,20 +1229,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1254,7 +1254,7 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1263,218 +1263,228 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="84" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="20" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="20" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="35"/>
+      <c r="E17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
@@ -1487,16 +1497,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525BC3BD-7C77-4CE4-B392-06D397024C6C}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,20 +1520,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1545,7 +1545,7 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1554,428 +1554,458 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="109.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="30">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="20" t="s">
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="20" t="s">
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="20" t="s">
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="20" t="s">
+      <c r="E16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="1:7" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20" t="s">
+      <c r="E18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="24" t="s">
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="27">
-        <v>3.4</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="E20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20" t="s">
+      <c r="E21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="20" t="s">
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="E23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20" t="s">
+      <c r="E24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="20" t="s">
+      <c r="E25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="E26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="20" t="s">
+      <c r="E27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="20" t="s">
+      <c r="E28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="E29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="20" t="s">
+      <c r="E30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="20" t="s">
+      <c r="E31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="21" t="s">
+      <c r="E32" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -1988,36 +2018,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
